--- a/myData/LEB 7-20-18 Strain 34 35 36.xlsx
+++ b/myData/LEB 7-20-18 Strain 34 35 36.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="0" windowWidth="23000" windowHeight="13860" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,6 +374,9 @@
     <t>NA</t>
   </si>
   <si>
+    <t>2018-07-20</t>
+  </si>
+  <si>
     <t>LZ34</t>
   </si>
   <si>
@@ -381,16 +384,13 @@
   </si>
   <si>
     <t>LZ36</t>
-  </si>
-  <si>
-    <t>2018-07-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,8 +432,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +519,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -557,7 +570,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -608,6 +621,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3114,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3154,7 +3171,7 @@
       <c r="K1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="18" t="s">
         <v>109</v>
       </c>
       <c r="M1" s="16" t="s">
@@ -3200,9 +3217,9 @@
         <v>114</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M2" t="s">
@@ -3238,9 +3255,9 @@
         <v>114</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M3" t="s">
@@ -3276,9 +3293,9 @@
         <v>114</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M4" t="s">
@@ -3314,9 +3331,9 @@
         <v>114</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M5" t="s">
@@ -3362,10 +3379,10 @@
         <v>114</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -3400,10 +3417,10 @@
         <v>114</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -3438,10 +3455,10 @@
         <v>114</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -3476,10 +3493,10 @@
         <v>114</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L9" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -3524,10 +3541,10 @@
         <v>114</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M10">
         <v>26</v>
@@ -3562,10 +3579,10 @@
         <v>114</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L11" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M11">
         <v>26</v>
@@ -3600,10 +3617,10 @@
         <v>114</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L12" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M12">
         <v>26</v>
@@ -3638,10 +3655,10 @@
         <v>114</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M13">
         <v>26</v>
@@ -3686,10 +3703,10 @@
         <v>114</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M14">
         <v>89</v>
@@ -3724,10 +3741,10 @@
         <v>114</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M15">
         <v>89</v>
@@ -3762,10 +3779,10 @@
         <v>114</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M16">
         <v>89</v>
@@ -3800,10 +3817,10 @@
         <v>114</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M17">
         <v>89</v>
@@ -3848,10 +3865,10 @@
         <v>114</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3886,10 +3903,10 @@
         <v>114</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -3924,10 +3941,10 @@
         <v>114</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3962,10 +3979,10 @@
         <v>114</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L21" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -4010,10 +4027,10 @@
         <v>114</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M22">
         <v>26</v>
@@ -4048,10 +4065,10 @@
         <v>114</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M23">
         <v>26</v>
@@ -4086,10 +4103,10 @@
         <v>114</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M24">
         <v>26</v>
@@ -4124,10 +4141,10 @@
         <v>114</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M25">
         <v>26</v>
@@ -4172,10 +4189,10 @@
         <v>114</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M26">
         <v>89</v>
@@ -4210,10 +4227,10 @@
         <v>114</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L27" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M27">
         <v>89</v>
@@ -4248,10 +4265,10 @@
         <v>114</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M28">
         <v>89</v>
@@ -4286,10 +4303,10 @@
         <v>114</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L29" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M29">
         <v>89</v>
@@ -4334,10 +4351,10 @@
         <v>114</v>
       </c>
       <c r="K30" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L30" t="s">
-        <v>119</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4372,10 +4389,10 @@
         <v>114</v>
       </c>
       <c r="K31" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L31" t="s">
-        <v>119</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -4410,10 +4427,10 @@
         <v>114</v>
       </c>
       <c r="K32" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L32" t="s">
-        <v>119</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -4448,10 +4465,10 @@
         <v>114</v>
       </c>
       <c r="K33" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L33" t="s">
-        <v>119</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4496,10 +4513,10 @@
         <v>114</v>
       </c>
       <c r="K34" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L34" t="s">
-        <v>119</v>
       </c>
       <c r="M34">
         <v>26</v>
@@ -4534,10 +4551,10 @@
         <v>114</v>
       </c>
       <c r="K35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L35" t="s">
-        <v>119</v>
       </c>
       <c r="M35">
         <v>26</v>
@@ -4572,10 +4589,10 @@
         <v>114</v>
       </c>
       <c r="K36" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L36" t="s">
-        <v>119</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -4610,10 +4627,10 @@
         <v>114</v>
       </c>
       <c r="K37" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L37" t="s">
-        <v>119</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -4658,10 +4675,10 @@
         <v>114</v>
       </c>
       <c r="K38" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L38" t="s">
-        <v>119</v>
       </c>
       <c r="M38">
         <v>89</v>
@@ -4696,10 +4713,10 @@
         <v>114</v>
       </c>
       <c r="K39" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L39" t="s">
-        <v>119</v>
       </c>
       <c r="M39">
         <v>89</v>
@@ -4734,10 +4751,10 @@
         <v>114</v>
       </c>
       <c r="K40" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L40" t="s">
-        <v>119</v>
       </c>
       <c r="M40">
         <v>89</v>
@@ -4772,10 +4789,10 @@
         <v>114</v>
       </c>
       <c r="K41" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L41" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L41" t="s">
-        <v>119</v>
       </c>
       <c r="M41">
         <v>89</v>
@@ -4805,8 +4822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4845,7 +4862,7 @@
       <c r="K1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="18" t="s">
         <v>109</v>
       </c>
       <c r="M1" s="16" t="s">
@@ -4885,9 +4902,9 @@
         <v>114</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M2" t="s">
@@ -4917,9 +4934,9 @@
         <v>114</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M3" t="s">
@@ -4949,9 +4966,9 @@
         <v>114</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M4" t="s">
@@ -4981,9 +4998,9 @@
         <v>114</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>115</v>
       </c>
       <c r="M5" t="s">
@@ -5023,10 +5040,10 @@
         <v>114</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -5055,10 +5072,10 @@
         <v>114</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -5087,10 +5104,10 @@
         <v>114</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -5119,10 +5136,10 @@
         <v>114</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L9" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -5161,10 +5178,10 @@
         <v>114</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M10">
         <v>26</v>
@@ -5193,10 +5210,10 @@
         <v>114</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L11" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M11">
         <v>26</v>
@@ -5225,10 +5242,10 @@
         <v>114</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L12" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M12">
         <v>26</v>
@@ -5257,10 +5274,10 @@
         <v>114</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M13">
         <v>26</v>
@@ -5299,10 +5316,10 @@
         <v>114</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M14">
         <v>89</v>
@@ -5331,10 +5348,10 @@
         <v>114</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M15">
         <v>89</v>
@@ -5363,10 +5380,10 @@
         <v>114</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M16">
         <v>89</v>
@@ -5395,10 +5412,10 @@
         <v>114</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" t="s">
-        <v>117</v>
+        <v>117</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="M17">
         <v>89</v>
@@ -5437,10 +5454,10 @@
         <v>114</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -5469,10 +5486,10 @@
         <v>114</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -5501,10 +5518,10 @@
         <v>114</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -5533,10 +5550,10 @@
         <v>114</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L21" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -5575,10 +5592,10 @@
         <v>114</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M22">
         <v>26</v>
@@ -5607,10 +5624,10 @@
         <v>114</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M23">
         <v>26</v>
@@ -5639,10 +5656,10 @@
         <v>114</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M24">
         <v>26</v>
@@ -5671,10 +5688,10 @@
         <v>114</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M25">
         <v>26</v>
@@ -5713,10 +5730,10 @@
         <v>114</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M26">
         <v>89</v>
@@ -5745,10 +5762,10 @@
         <v>114</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L27" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M27">
         <v>89</v>
@@ -5777,10 +5794,10 @@
         <v>114</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M28">
         <v>89</v>
@@ -5809,10 +5826,10 @@
         <v>114</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L29" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="M29">
         <v>89</v>
@@ -5851,10 +5868,10 @@
         <v>114</v>
       </c>
       <c r="K30" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L30" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L30" t="s">
-        <v>119</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -5883,10 +5900,10 @@
         <v>114</v>
       </c>
       <c r="K31" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L31" t="s">
-        <v>119</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -5915,10 +5932,10 @@
         <v>114</v>
       </c>
       <c r="K32" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L32" t="s">
-        <v>119</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -5947,10 +5964,10 @@
         <v>114</v>
       </c>
       <c r="K33" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L33" t="s">
-        <v>119</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -5989,10 +6006,10 @@
         <v>114</v>
       </c>
       <c r="K34" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L34" t="s">
-        <v>119</v>
       </c>
       <c r="M34">
         <v>26</v>
@@ -6021,10 +6038,10 @@
         <v>114</v>
       </c>
       <c r="K35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L35" t="s">
-        <v>119</v>
       </c>
       <c r="M35">
         <v>26</v>
@@ -6053,10 +6070,10 @@
         <v>114</v>
       </c>
       <c r="K36" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L36" t="s">
-        <v>119</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -6085,10 +6102,10 @@
         <v>114</v>
       </c>
       <c r="K37" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L37" t="s">
-        <v>119</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -6127,10 +6144,10 @@
         <v>114</v>
       </c>
       <c r="K38" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L38" t="s">
-        <v>119</v>
       </c>
       <c r="M38">
         <v>89</v>
@@ -6159,10 +6176,10 @@
         <v>114</v>
       </c>
       <c r="K39" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L39" t="s">
-        <v>119</v>
       </c>
       <c r="M39">
         <v>89</v>
@@ -6191,10 +6208,10 @@
         <v>114</v>
       </c>
       <c r="K40" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L40" t="s">
-        <v>119</v>
       </c>
       <c r="M40">
         <v>89</v>
@@ -6223,10 +6240,10 @@
         <v>114</v>
       </c>
       <c r="K41" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L41" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="L41" t="s">
-        <v>119</v>
       </c>
       <c r="M41">
         <v>89</v>

--- a/myData/LEB 7-20-18 Strain 34 35 36.xlsx
+++ b/myData/LEB 7-20-18 Strain 34 35 36.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="123">
   <si>
     <t>A</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>LZ36</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>dropExplanation</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -560,6 +566,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -570,7 +585,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -625,6 +640,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3129,15 +3147,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="Q1" sqref="Q1:R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="24">
+    <row r="1" spans="1:18" ht="24">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3186,8 +3204,14 @@
       <c r="P1" s="16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
@@ -3234,8 +3258,12 @@
       <c r="P2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
@@ -3272,8 +3300,12 @@
       <c r="P3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
@@ -3310,8 +3342,12 @@
       <c r="P4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
@@ -3348,8 +3384,12 @@
       <c r="P5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -3396,8 +3436,12 @@
       <c r="P6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
@@ -3434,8 +3478,12 @@
       <c r="P7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
@@ -3472,8 +3520,12 @@
       <c r="P8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
@@ -3510,8 +3562,12 @@
       <c r="P9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -3558,8 +3614,12 @@
       <c r="P10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
@@ -3596,8 +3656,12 @@
       <c r="P11">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
@@ -3634,8 +3698,12 @@
       <c r="P12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
@@ -3672,8 +3740,12 @@
       <c r="P13">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
@@ -3720,8 +3792,12 @@
       <c r="P14">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
@@ -3758,8 +3834,12 @@
       <c r="P15">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
@@ -3796,8 +3876,12 @@
       <c r="P16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
@@ -3834,8 +3918,12 @@
       <c r="P17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -3882,8 +3970,12 @@
       <c r="P18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
@@ -3920,8 +4012,12 @@
       <c r="P19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
@@ -3958,8 +4054,12 @@
       <c r="P20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
@@ -3996,8 +4096,12 @@
       <c r="P21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
         <v>41</v>
       </c>
@@ -4044,8 +4148,12 @@
       <c r="P22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
@@ -4082,8 +4190,12 @@
       <c r="P23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
@@ -4120,8 +4232,12 @@
       <c r="P24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
@@ -4158,8 +4274,12 @@
       <c r="P25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="19"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="10" t="s">
         <v>46</v>
       </c>
@@ -4206,8 +4326,12 @@
       <c r="P26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="19"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
@@ -4244,8 +4368,12 @@
       <c r="P27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
@@ -4282,8 +4410,12 @@
       <c r="P28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="19"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
@@ -4320,8 +4452,12 @@
       <c r="P29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="19"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="10" t="s">
         <v>51</v>
       </c>
@@ -4368,8 +4504,12 @@
       <c r="P30">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="19"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
@@ -4406,8 +4546,12 @@
       <c r="P31">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="19"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
@@ -4444,8 +4588,12 @@
       <c r="P32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="19"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
@@ -4482,8 +4630,12 @@
       <c r="P33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" s="19"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4530,8 +4682,12 @@
       <c r="P34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" s="19"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
@@ -4568,8 +4724,12 @@
       <c r="P35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" s="19"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
@@ -4606,8 +4766,12 @@
       <c r="P36">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" s="19"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
@@ -4644,8 +4808,12 @@
       <c r="P37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" s="19"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="10" t="s">
         <v>61</v>
       </c>
@@ -4692,8 +4860,12 @@
       <c r="P38">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" s="19"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
@@ -4730,8 +4902,12 @@
       <c r="P39">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" s="19"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
@@ -4768,8 +4944,12 @@
       <c r="P40">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" s="19"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
@@ -4806,6 +4986,10 @@
       <c r="P41">
         <v>20</v>
       </c>
+      <c r="Q41" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
